--- a/story/主线剧情/main/level_main_08-06_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-06_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="707">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -1427,6 +1433,1410 @@
   </si>
   <si>
     <t xml:space="preserve">生き物の命を呑み込むことしか知らない陰鬱な空に、突然ぽっかりと巨大な穴が開いた――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back when I first became Infected, my mind wasn’t clear on anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I knew Kashchey wanted to use me to do so much, but I was always afraid. What was it he wanted me to do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had he planned some kind of trick, one to destroy in a blink of an eye the network of Infected I’d spent so much time setting up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or had he planned to let me divide the Infected? Let them drift into two camps, the urbanites and the settlers?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or the even more frightening scenario—perhaps he’d planned for the Infected to become a new army, and for Ursus to be plunged into war once more?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could only speculate. He hung over my head like a murky specter, impossible to chase off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I could only move onward.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the Yetis, apparently called Petrova, used cystymilk yesterday to stir-fry oilseeds. A strange recipe, for sure. The taste was pretty interesting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Oh, that... I remember that. The time’s gone so fast. It’s been two whole years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Are the stories the fighters passed around true, then? You really fought with her? From the sound of it, you both blew the entire city ruins into oblivion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It wasn’t that dramatic. Rumors always get more outlandish as time goes on... all I did was melt her Originium ice crystals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Sashenka, no running around! You’ll slip!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Look at them, just free to live. It’s so nice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s a duty of mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I never imagined you’d volunteer to teach the children.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I get along a lot better with the children than I do with Ursus. What was that about melting, just now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  FrostNova’s Originium ice crystals. A sort of Arts device her squad used, by my guess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That’s something... I’m sure FrostNova didn’t like it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  *chuckle*. Nope. I took a single breath, and she froze half my body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And when I finally snapped out of it, she was already charging me, going for the neck with an ice blade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I blocked it, took in the hissing sound, and this sword tasted frost for the first time in all its years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It was probably a first for her, too, meeting someone who could chip her blade...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Ah, you’re pretty happy to talk about this. Are you proud of it, maybe?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Not really... yeah maybe you are right... uh. That child. The one hiding behind the wood fence. What’s her name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Lyubov. That’s enough spying on us, Liuba! I’ll read a story for you all next period.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That’s right, a story all about an old ghost in the gray forest... a scary story!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Could you help bring me some wood shavings? Put them in a basket. Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  So then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  FrostNova... Alina, you know it’s FrostNova we’re talking about. Her name spread among the Casters of the Northwestern Tundra long before mine ever did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I thought you didn’t like it when people spoke your name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If anyone ever uses it to threaten, then of course I won’t be happy. But if hearing my name makes them want to challenge me, then that’s not too shabby.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Nothing like you. I don’t think FrostNova ever gives challenges the time of day. Thinking about it that way, you really stoked her fire, didn’t you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  She’s the top of the Infected Casters, the top squad commander, and the strongest of the Infected’s warriors to boot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Don’t misunderstand. It’s not like that’s what I aim for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Plenty of people think you resemble each other in places, though. Some of the children say they want to be like FrostNova, and some of them say they want to be a hero like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Time out, time out. Now that’s a word I’m not happy with. How about you, Alina? What do you think?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  No two people are alike, in my eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Figured you’d say something like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Truth be told, I don’t really know what FrostNova’s life was like as a child. She’s been brought up well. It was probably alright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But don’t let any child experience the things I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You’ve been brought up well, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don’t want to talk about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Talulah, none of us know the bitter things the world has in store for them, nor whether those things will be even more absurd than what we’ve already seen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well, that’s depressing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s also the reason I wanted to be a teacher.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  My “teacher” wasn’t anything like you, for sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...I get what you mean, now. You’re saying maybe FrostNova also had, well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Who knows. No two Infected live identical lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well, to wrap up, I never slacked on practicing technique again after my dispute with FrostNova. Not just Arts, my swordsmanship too. Like hell she’ll ever best me again in either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I know you and her fought. What about after that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It took until her anger abated before she told me she wasn’t the one responsible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Then that only leaves one person who could’ve been.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re right on the mark, yes. It wasn’t too long after our scuffle finished...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...that out from another end of the city, came a...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Is remembering it that much effort?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I should say, that first impression was too shocking. I’m scrambling to find the words for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The broad midday light spilled over his body, but couldn’t melt away the black, black as tar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I was in the middle of telling FrostNova about my project. I’d gotten up to where I was in contact with Infected in other cities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I wanted to assemble the funds to construct or seek out a small-scale nomadic city, and invited them to join the project...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I saw his shadow. I couldn’t keep speaking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  What stopped you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m not THAT confident in myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Not that confident? I’ve never seen you short of confidence before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I mean, this was... Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You couldn’t talk him over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I still haven’t to this day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You already know all the rest. After FrostNova and I had our “friendly discussion,” our group successfully joined up with the guerrillas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Good for us. All else aside, after hearing we could go with the guerrillas, plenty of our Infected here were happy beyond belief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  These last two years have been better to us than before. You made a good choice. You’re finally in the right, Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I mean... the way I see it, the guerrillas definitely didn’t care about me or the other Infected fighters, they just... couldn’t ignore the rest of the Infected, traveling with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Then that’s even less reason to be down about it. You thought the same way, after all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But it’s been two years. The situation hasn’t made any headway at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Think about it this way, Talulah. From what moment did you start feeling Patriot didn’t approve of you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Over a year ago... not long after we joined up with the guerrillas. All the way up until now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Not happening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We don’t even know how many more Infected are out on the tundra under Ursus’s wretched rule. It’s too early yet to be talking with the guerrillas about the Infected in the cities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’re not intending to abandon the tundra’s Infected. Why would I have brought them with me, otherwise?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sooner or later will come the day we return. Our objective is to have Ursus’s, no, the entire world’s Infected come together...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We may be in differing places, but our lack of resignation to our circumstances is one and the same, indistinguishable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  A friend of mine in a certain city calls that kind of behavior “reunion.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  He calls on the Infected to come together, naming it the “Reunion Movement,” revolving around one identical belief, protesting against Ursus’s cruel rule over the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  And we should get the chance to protest the Ursus soldiers on the tundra about the exploitation in the mines, but I can’t say it’d make them turn over a new leaf.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah, forget the common people for a moment. Talk about the soldiers. The Ursus Army wouldn’t let a single one of us go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If you want to go south to “protest,” we could just save ourselves the trouble and find a division to kill us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Ursus is not a single-minded entity. This is our chance. What the Reunion Movement aims to do is pass on the belief, but I see even more opportunities in it. We have our own signal to send.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  What signal?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  “You are not alone.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You know better than I do that staying on the tundra is a life of attrition, eating away at our strength. We need to go beyond it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I don’t decide this stuff.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re still not willing to decide it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If the price of leaving is death, then my life never had much use outside of taking down an Ursus soldier or two.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But what about the people around us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah, you haven’t got brothers and sisters by your side. I’m not going to let mine throw away their lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But I think the other part’s right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Which part?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Telling the Infected they’re not alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We’ve spent too much time on one thing, here on the tundra.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Seeking friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But linking up with the city Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Guess people from the big city really do like to dream a little bigger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don’t need you mocking me yet, FrostNova.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I’m not mocking you. You’re so strong. You’ve taken all of them a long, long way, just like us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But it’s a dream, going south, trust me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  The guerrilla force grows, but we’re Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We don’t have many years left... and your alliance would need plenty of years, at least...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And that’s precisely why—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Dad?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Ah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Mr. Patriot?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot sits down by the bonfire. Like Talulah simulated over and over in her mind, Patriot simply sits down, wordless, and gazes into the fire. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  You’re good. Keep going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s precisely because we don’t have many years left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The south has fields of bumper crops, suitable temperatures, four seasons to tell apart, and all sorts of fresh food.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Resources, education, prospects...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And a future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  —Future?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  FrostNova, there’s every likelihood I know what you’re thinking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  What I’m thinking is written on my face. I don’t know anything you’d call a “future.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We may not have much time left at all. There’s only so many places it’d let us set foot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But the Infected should have a future. For the future Infected, for those who come after us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  FrostNova... we’ll find those Infected a home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Somewhere Ursus and the Infected Patrol Unit won’t disturb. Somewhere the Ursus armies can’t surround.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  And you know for sure, taking the Infected with us would get in the way of the guerrillas’ operations. But we won’t abandon them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  It’ll be a seriously difficult path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  At the very least, what hopes we bring about before we die can be left to others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And, if we overthrow Ursus’s present system over the Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Everything will change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We’re thin on the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If you weren’t an Infected, would you shake my hand?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’d start from a handshake, in that case.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...What you’re saying is probably...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Dad? Where are you going?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I’ve had enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sir...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Hey.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Don’t mind it too much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  He was probably just thinking it over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  He’s been thinking it over for ages, if so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s been two years, and the only conversations we’ve ever had have been about team composition and following plans. He’s never asked me once about anything to do with any project.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah, no matter if he’s ridiculing you or opposing you—ah, not that I think he’s the type to really ridicule other people—you’re still going to wait forever. Am I right, or not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If we want to leave the tundra, we need the power of the guerrillas. I’ll keep at it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Because he’s the hope of the tundra’s Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I thought you didn’t say things like that. I mean, you never... you don’t say things like that, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I just want to know what your thought process is like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...I think—it’s because he’s the symbol the tundra’s Infected unite behind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  A symbol with no way of passing on to the next generation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Get up! How long are you planning to stay there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You gave me a chill, you goddamned white rabbit...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I don’t care how stick thin you are, don’t tell me this cold front’s too much for you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You sure weren’t saying that when you iced these Ursus weapons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Brothers and sisters, withdraw! Let them follow! Draw out the mine guards!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just hold on until the Shieldguards can support us! Don’t lose hope! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  —Pace. Pick it up. Faster. The guerrillas are in place to get the mine guards double-teamed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  How do you figure—wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Those strange Originium ornaments. Did the guerrillas arrange those?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Those were set up for my father.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The Ursus army isn’t pursuing us anymore. Seems like they’re really not a fan of what those entail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Wait, are... are these some kind of Sarkaz thing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  His Sarkaz ceremony. These two are the best we could make with what we had on hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Patriot... is Patriot here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  You said it yourself. You were expecting our team to be surprise-attacked. And if we wanted to annihilate their whole company, of course we’d come up short if we only relied on our squad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...They’re already beginning to rout.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Have you ever seen my father in battle before, Talulah...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Local Ursus Troop"]  The... him... It’s him... Why did none of you s—say... say he was here?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Local Ursus Troop"]  Retreat! Retreat! Just forget them, forget them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Local Ursus Troop"]  Wait, hold on! He’s coming from the rear? Then what’s all this in front of us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Local Ursus Troop"]  Hello? Hello? ! Say something! Say something!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until those local troops let loose their violence upon him, the Sarkaz who towered over all others makes no move, nor does he make a sound.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yet Talulah hears, laced through the north wind of the tundra, something not unlike cries. The shudders of the world itself, its wickedness cowering back, step after step, before the Wendigo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot stands fast, and casts toward the tundra a long halberd.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And in the gloom of a sky that knows only to devour all life, suddenly, a chasm is cut.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">처음 감염자가 됐을 때의 난 무척 어리석었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카셰이가 날 많은 일을 이용하려는 걸 알곤 있었지만 언제나 무서웠어, 내게 뭘 원하는지 몰랐거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 오랜 시간을 들여 세운 감염자 통신망을 그가 무너뜨리려는 건 아닐까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아니면 날 이용해 도시파와 마을파로 분열시키려는 걸까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">더 무서운 건, 카셰이가 감염자로 군대를 조직해 우르수스를 또다시 전쟁터로 끌어들이지 않을까 하는 거였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당시의 나는 추측 밖에 할 수 없었어, 암울한 생각이 좀처럼 머릿속을 떠나지 않았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그래도 앞으로 나아가는 수밖에……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">페트로바라고 불리는 눈의 악마 소대원이 어제 치스티밀크로 음식을 만들었는데 조리법이 무척 특이했어, 맛도 그렇고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그 일이라면…… 아, 생각났다. 벌써 2년 전 일이네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그런데 전사들 사이에 떠도는 이야기가 사실이야? 프로스트노바와 정말 한 판 붙은 거야? 두 사람이 폐허를 박살 냈다고 하던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그 정도까지는 아니야, 소문은 시간이 지날수록 부풀려 지는 법이니까…… 그냥 프로스트노바의 오리지늄 결정을 녹여버렸을 뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  사셴카, 뛰지 마. 그러다가 넘어지면 어쩌려고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  다들 자유롭게 지내는 걸 보니 좋네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그게 내 일이잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 아이들을 가르치는 일에 지원할 줄은 몰랐어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  우르수스보다도 아이들과 잘 지내고 있지. 그런데 방금 뭐라고 했어, 뭘 녹였다고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바의 오리지늄 결정. 그 여자 팀에서 사용하는 아츠 장치 같아, 내 생각엔.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  하지만…… 프로스트노바가 절대 인정하지 않았을 텐데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  후후, 맞아. 입김을 내뱉자마자 몸의 절반이 얼어붙었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  정신을 차리고 보니 그녀의 얼음 칼이 내 목덜미를 겨누고 있었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  칼을 막았더니 쓱 하는 소리와 함께 검에 서리가 맺히더라, 그런 건 몇 년 만에 처음 봤어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자신의 칼에 흠집을 낼 수 있는 사람은 프로스트노바도 처음 봤을 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  득의양양한 걸 보니 꽤 자랑스러운가 보구나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아니, 그러니까…… 맞아, 그런 것 같아…… 으응? 울타리 뒤에 숨어 있는 저 녀석, 이름이 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  류보프. 엿듣지 마, 리우바! 다음 수업에 이야기책 읽어줄게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그래, 회색 숲의 유령 이야기…… 엄청 무서운 이야기란다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  선생님 대신 톱밥 좀 가져다줄래? 바구니에 담아서 말이야, 고마워.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그래서 어떻게 됐어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바…… 알리나, 너도 알다시피 프로스트노바는 서북 툰드라의 감염자 캐스터 사이에서 나보다 먼저 이름이 알려졌어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  사람들이 네 이름을 들먹거리는 걸 네가 싫어하는 줄 알았는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내 이름으로 누군가를 위협하는 건 싫어. 하지만 전사들이 내 이름을 듣고 도전해 오는 건 좋아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  너와 달리 프로스트노바는 도전받는 걸 싫어하잖아. 그렇게 생각하면 너 때문에 정말 화가 났겠는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바는 감염자 중 최고의 캐스터야, 최고의 지휘관이자 최강의 감염자 전사지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……오해하지 마, 프로스트노바를 꺾으려던 건 아니었으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  하지만 두 사람이 닮았다고 생각하는 사람이 많아. 커서 프로스트노바처럼 되고 싶단 아이도 있고, 너처럼 영웅이 되고 싶단 아이도 있는걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그, 그만! 그 이야기는 정말 듣고 싶지 않다고. 알리나, 넌 어떻게 생각해?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  내 눈엔 전혀달라 보이는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  역시, 너라면 그렇게 말할 줄 알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바가 어렸을 때 어떻게 자랐는지 나도 몰라. 교양 있는 걸 보면 꽤 잘 지내온 것 같던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  어떤 아이도 내가 겪었던 일을 겪게 하고 싶지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  너도 교양이 넘치는걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그 얘기는 하고 싶지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……탈룰라, 이 땅이 아이들에게 어떤 경험을 선사할지, 우리보다 더 터무니없는 경험을 하게 할지 아무도 알 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  김빠지는 말 하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그래서 선생님이 되고 싶다고 생각했었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 내 '선생님'은 너처럼 좋지 않았는걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……네가 무슨 말 하려는지 알겠어, 그러니까 넌 프로스트노바도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  누가 알겠어? 감염자들 모두 저마다 다른 삶을 살아왔을 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아무튼, 프로스트노바와 부딪힌 뒤로 기술 훈련에 한시도 소홀할 수 없었어. 아츠는 말할 것도 없고 검술도 말이야. 프로스토노바한테 절대 질 수는 없었으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  프로스트노바랑 한 판 했다는 건 알겠는데, 그다음에는 어떻게 됐어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  화가 풀릴 때까지 기다렸더니 그제야 이번 일은 자신에게 결정권이 없다고 하던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그렇다는 건 결정권을 가진 사람이 한 명이라는 거네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  맞아, 네 말 대로야. 싸움이 끝나고 얼마 지나지 않아서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……도시의 반대편에서 나타났지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그자가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  떠올리기만 해도 힘든 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  첫인상이 너무 강렬해서 네게 들려줄 단어를 고르는 중이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내리쬐는 정오의 햇살도 그의 어둠을 벗겨내진 못했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바에게 다른 도시의 감염자와 연락할 거라고 말하던 도중이었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자금을 조달해 소규모 이동도시를 짓거나 구할 계획이라며, 협조하지 않겠냐고 이야기하던 도중이었는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그의 그림자를 보는 순간 말을 잇지 못하겠더라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  어째서?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그자처럼 자신이 없었거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네게도 그럴 때가 있는 거야? 넌 언제나 자신만만하다고 생각했는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 상대는…… 패트리어트 씨야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  설득하지 못했구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그건 지금도 여전해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이후의 일은 너도 알다시피 프로스트노바와 '우정의 세미나'를 치른 후에 우리 부대는 유격대에 합류할 수 있었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  잘 됐어. 어쨌든 유격대와 함께한다는 소식에 이곳의 감염자들이 무척 기뻐했거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  지난 2년 동안 우리는 예전보다 잘 지내왔어. 네 선택은 틀리지 않았어. 이번엔 네가 옳았어, 탈룰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만…… 내 생각엔 유격대는 나와 다른 감염자 전사를 대수롭지 않게 여기는 것 같아. 그저…… 우리와 동행한 다른 감염자들을 무시할 수 없기 때문이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그러니까 더더욱 기죽을 것 없어, 너도 그렇게 생각하잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 지난 2년 동안 아무런 진전도 없었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라, 넌 언제부터 패트리어트 씨가 널 인정하지 않는다고 생각하기 시작한 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  1년 전쯤…… 우리가 유격대와 합류한 지 얼마 되지 않아서부터. 그때부터 지금까지 줄곧.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  말도 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  툰드라에 얼마나 많은 감염자가 우르수스의 폭정 속에 살고 있는지도 모르는 마당에, 유격대에 도시의 감염자에 관한 이야기를 꺼내는 건 너무 일러.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  툰드라의 감염자를 포기하자는 게 아니야. 그랬다면 내가 왜 저들을 데리고 가려 하겠어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  언젠간 돌아올 거야. 우리의 목표는 우르수스, 아니, 세상의 모든 감염자를 하나로 만드는 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  서로 다른 곳에서 자랐지만, 지금의 처지에 불만을 갖고 있는 건 똑같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  어떤 도시에 사는 내 친구는 이걸 '통합'이라고 부르던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  친구는 감염자에게 힘을 합치자고 호소하며 자칭 '리유니온'이라는 조직을 세웠어. 하나의 신념을 바탕으로 감염자를 향한 우르수스의 폭정과 압제에 저항하고 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  우리도 적당한 기회에 툰드라 광산에 대한 우르수스의 착취에 맞서야 해. 어쩌면 그걸 계기로 저들이 잘못을 반성할지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라, 우르수스의 시민 말고, 군대에 관해서만 이야기하자. 우르수스군은 우리 중 누구도 가만두지 않을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  네가 '저항'을 위해 남쪽으로 간다면 우린 차라리 사단을 찾아가 목숨을 바치겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우르수스에게도 약점은 있어.이건 기회야, 리유니온은 신념을 전달하려는 것뿐이겠지만 난 더 많은 기회가 있다고 생각해. 우리는 사람들에게 메시지를 전할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  메시지라니?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  "당신들은 결코 혼자가 아니다."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  툰드라에 있는 건 제 살 깎아 먹기라는 걸 너도 잘 알 텐데. 우린 툰드라에서 벗어나야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  그건 내가 결정할 수 있는 게 아냐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이런 걸 싫어하는 건 여전하군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  툰드라를 떠나야 하는 대가가 죽음이라면 내 목숨으로 우르수스 병사 한두 명을 살리는 게 고작일 뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  하지만 우리 곁에 있는 사람들은?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라, 네겐 곁을 지켜줄 가족이 없겠지만 난 그들을 죽음으로 몰아넣을 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  그런데 한 가지는 맞는 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  한 가지라니?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  감염자들에게 혼자가 아니란 걸 알려주는 것!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  한 가지 일 때문에 설원에서 많은 시간을 날리고 말았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  친구를 찾겠다며……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  그런데 도시의 감염자와 손을 잡겠다고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  확실히 대도시 출신들은 로맨틱한 것 같네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네 비웃음 따윈 듣고 싶지 않아, 프로스트노바.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  널 비웃는 게 아니야. 넌 강해, 사람들을 데리고 아주 기나긴 길을 걸어왔지, 우리처럼 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  그래도 남쪽으로 가는 건 헛된 생각이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  유격대가 아무리 강하다고 해도 우리는 감염자야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  우리에게 남은 시간은 몇 년도 채 안 돼…… 연합하려면 또 몇 년이 걸릴지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇기 때문에……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아빠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트 씨?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">패트리어트가 모닥불 옆에 앉았다. 탈룰라가 머릿속에서 수도 없이 그려왔던 장면처럼 패트리어트는 입을 다문 채 모닥불만 바라보고 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  괜찮아, 이야기 계속해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리에게 남은 시간이 많지 않기 때문에 남쪽으로 가야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  남쪽에는 비옥한 땅과 따뜻한 기후, 뚜렷한 사계절, 그리고 신선한 음식이 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자원, 교육, 비전……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그리고 미래까지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……미래?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바, 네가 무슨 생각하는지 알 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  내 생각은 내 얼굴에 이미 쓰여 있을 텐데, 난 '미래'가 뭔지 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리에게 주어진 시간은 확실히 많지 않아, 우리가 갈 수 있는 곳도 많지 않고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 감염자에게도 미래가 있을 거야. 미래의 감염자에게, 우리 다음 세대에게 주어진 미래 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  프로스트노바…… 감염자들에게 집을 찾아 주자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우르수스의 감염자 감시팀에게 핍박당하거나, 포위되지 않는 그런 곳 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  너도 잘 알잖아, 감염자를 데리고 가면 유격대의 행동에 방해가 되겠지만 우리가 그들을 결코 포기하지 않을 거라는 걸……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아주 힘든 길이 될 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  적어도 우리가 죽기 전에 만든 희망들을 다른 사람에게 남겨줄 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그리고 우르수스의 감염자 제도를 뒤엎는다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  모든 것이 달라질 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  우리에겐 벅찬 일이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  네가 감염자가 아니었어도 나와 손을 잡았을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럼 우리, 악수부터 시작해볼까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……네가 말하는 건 어쩌면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아빠? 어디 가려고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  이 정도면 충분하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  하아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  너무 신경 쓰지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  패트리어트 씨는 고민 중인 걸 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇다고 하기엔 너무 오래 걸리잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  2년 동안, 패트리어트 씨와 나눈 이야기라고는 부대 구축과 배치에 관한 것뿐이었어. 내 계획에 관해 한 번도 물어본 적 없는걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라, 패트리어트 씨가 널 비웃든 네 의견에 반대하든…… 앗, 물론 그분이 다른 사람을 비웃을 리는 없겠지만…… 넌 기다릴 거잖아. 그렇지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  툰드라를 떠나려면 유격대의 힘이 필요해. 그러니까 난 참을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그분이 툰드라 감염자의 희망이라서?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 그렇게 말하다니, 너라면…… 그렇게 말하면 안 되는 거 아냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네 생각을 알고 싶을 뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……패트리어트 씨야말로 툰드라 감염자들을 단결시키는 상징이라고 생각해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이 상징은 다음 세대에 전해질 수 없는 걸까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  일어나! 거기에 언제까지 멍청히 있을 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이 흰 토끼가…… 네가 날 얼렸잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  네 불씨가 아무리 작아도 그렇지, 이 정도 냉기 하나 못 버티면 어떡해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 우르수스인의 무기를 얼려버렸을 때는 그렇게 말하지 않았잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  모두 후퇴한다! 광산의 수비군이 나올 때까지 놈들을 유인해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  방패병이 올 때까지만 버텨! 포기하면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……서둘러! 유격대가 포위됐어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  대체 왜 그렇게 생각…… 잠깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  저 해괴한 오리지늄 장식품은 유격대의 솜씨인가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아빠를 위한 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우르수스군이 추격을 그만뒀어, 저걸 두려워하는 것 같은데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  잠깐, 저거…… 혹시 살카즈의 뭔가 하는 거 아닌가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  아빠의 살카즈 의식이야. 저건 지금의 재료로 만들 수 있는 최상의 결과물이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트 씨가…… 여기에 있다고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  네 말처럼 우리 부대가 습격당하리라는 건 충분히 예상했던 일이야. 넌 여기서 중대를 제거하겠다고 했지만, 우리 팀만으로는 벅차.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……적들이 벌써 동요하기 시작했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  탈룰라, 혹시 우리 아빠가 싸우는 모습 본 적 있어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 현지 주둔군"]  저, 저건…… 그…… 그자야…… 왜 말 안 한 거냐…… 그자가 여기 있다고 왜 말 안 한 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 현지 주둔군"]  철수, 철수! 무조건 철수다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 현지 주둔군"]  잠깐! 부대 후방에서 나타난 건가? 그럼 이 앞에 있는 건 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 현지 주둔군"]  이봐? 어이! 대답해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현지 주둔군이 그를 향해 맹공을 퍼붓기 전까지, 모두의 앞에 모습을 드러낸 거대한 살카즈는 꼼짝도 하지 않고 입을 굳게 다물었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 탈룰라는 툰드라의 북풍 속에서 울부짖는 소리를 들은 것 같았다. 그것은 대지의 떨림이었다. 그 사악함이 웬디고 앞에서 점점 사그라졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우뚝 선 패트리어트가 툰드라를 향해 손에 들고 있던 긴 창을 던졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그러자 생명을 집어삼킬 줄만 알았던 음울한 하늘에 커다란 구멍이 생겨났다.
 </t>
   </si>
 </sst>
@@ -1785,1426 +3195,2488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>391</v>
+      </c>
+      <c r="D37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>392</v>
+      </c>
+      <c r="D38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D39" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D41" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D46" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D48" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
+        <v>404</v>
+      </c>
+      <c r="D50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>406</v>
+      </c>
+      <c r="D52" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>408</v>
+      </c>
+      <c r="D54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>409</v>
+      </c>
+      <c r="D55" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>410</v>
+      </c>
+      <c r="D56" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>411</v>
+      </c>
+      <c r="D57" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>412</v>
+      </c>
+      <c r="D58" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>413</v>
+      </c>
+      <c r="D59" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>416</v>
+      </c>
+      <c r="D62" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" t="s">
+        <v>422</v>
+      </c>
+      <c r="D68" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" t="s">
+        <v>423</v>
+      </c>
+      <c r="D69" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>426</v>
+      </c>
+      <c r="D72" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>427</v>
+      </c>
+      <c r="D73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>428</v>
+      </c>
+      <c r="D74" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" t="s">
+        <v>430</v>
+      </c>
+      <c r="D76" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
+        <v>435</v>
+      </c>
+      <c r="D81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" t="s">
+        <v>436</v>
+      </c>
+      <c r="D82" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>437</v>
+      </c>
+      <c r="D83" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>439</v>
+      </c>
+      <c r="D85" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>440</v>
+      </c>
+      <c r="D86" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>442</v>
+      </c>
+      <c r="D88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>445</v>
+      </c>
+      <c r="D91" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" t="s">
+        <v>446</v>
+      </c>
+      <c r="D92" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" t="s">
+        <v>448</v>
+      </c>
+      <c r="D94" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D95" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>453</v>
+      </c>
+      <c r="D99" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>455</v>
+      </c>
+      <c r="D101" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>456</v>
+      </c>
+      <c r="D102" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s">
+        <v>457</v>
+      </c>
+      <c r="D103" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" t="s">
+        <v>458</v>
+      </c>
+      <c r="D104" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" t="s">
+        <v>460</v>
+      </c>
+      <c r="D106" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>461</v>
+      </c>
+      <c r="D107" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" t="s">
+        <v>464</v>
+      </c>
+      <c r="D110" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" t="s">
+        <v>465</v>
+      </c>
+      <c r="D111" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" t="s">
+        <v>466</v>
+      </c>
+      <c r="D112" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" t="s">
+        <v>467</v>
+      </c>
+      <c r="D113" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D115" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D116" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" t="s">
+        <v>471</v>
+      </c>
+      <c r="D117" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>472</v>
+      </c>
+      <c r="D118" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" t="s">
+        <v>474</v>
+      </c>
+      <c r="D120" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>299</v>
+      </c>
+      <c r="C121" t="s">
+        <v>475</v>
+      </c>
+      <c r="D121" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" t="s">
+        <v>477</v>
+      </c>
+      <c r="D123" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>302</v>
+      </c>
+      <c r="C124" t="s">
+        <v>478</v>
+      </c>
+      <c r="D124" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>479</v>
+      </c>
+      <c r="D125" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
+        <v>480</v>
+      </c>
+      <c r="D126" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" t="s">
+        <v>482</v>
+      </c>
+      <c r="D128" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" t="s">
+        <v>483</v>
+      </c>
+      <c r="D129" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>485</v>
+      </c>
+      <c r="D131" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" t="s">
+        <v>486</v>
+      </c>
+      <c r="D132" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" t="s">
+        <v>487</v>
+      </c>
+      <c r="D133" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" t="s">
+        <v>488</v>
+      </c>
+      <c r="D134" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" t="s">
+        <v>489</v>
+      </c>
+      <c r="D135" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" t="s">
+        <v>490</v>
+      </c>
+      <c r="D136" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" t="s">
+        <v>491</v>
+      </c>
+      <c r="D137" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>492</v>
+      </c>
+      <c r="D138" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139" t="s">
+        <v>493</v>
+      </c>
+      <c r="D139" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" t="s">
+        <v>494</v>
+      </c>
+      <c r="D140" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s">
+        <v>495</v>
+      </c>
+      <c r="D141" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" t="s">
+        <v>496</v>
+      </c>
+      <c r="D142" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" t="s">
+        <v>497</v>
+      </c>
+      <c r="D143" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" t="s">
+        <v>498</v>
+      </c>
+      <c r="D144" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>500</v>
+      </c>
+      <c r="D146" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C148" t="s">
+        <v>502</v>
+      </c>
+      <c r="D148" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" t="s">
+        <v>503</v>
+      </c>
+      <c r="D149" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>328</v>
+      </c>
+      <c r="C150" t="s">
+        <v>504</v>
+      </c>
+      <c r="D150" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" t="s">
+        <v>505</v>
+      </c>
+      <c r="D151" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>506</v>
+      </c>
+      <c r="D152" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>510</v>
+      </c>
+      <c r="D156" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" t="s">
+        <v>511</v>
+      </c>
+      <c r="D157" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" t="s">
+        <v>512</v>
+      </c>
+      <c r="D158" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" t="s">
+        <v>513</v>
+      </c>
+      <c r="D159" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" t="s">
+        <v>514</v>
+      </c>
+      <c r="D160" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" t="s">
+        <v>515</v>
+      </c>
+      <c r="D161" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" t="s">
+        <v>516</v>
+      </c>
+      <c r="D162" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" t="s">
+        <v>517</v>
+      </c>
+      <c r="D163" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>342</v>
+      </c>
+      <c r="C164" t="s">
+        <v>518</v>
+      </c>
+      <c r="D164" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s">
+        <v>520</v>
+      </c>
+      <c r="D166" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" t="s">
+        <v>521</v>
+      </c>
+      <c r="D167" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" t="s">
+        <v>522</v>
+      </c>
+      <c r="D168" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" t="s">
+        <v>523</v>
+      </c>
+      <c r="D169" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>524</v>
+      </c>
+      <c r="D170" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" t="s">
+        <v>525</v>
+      </c>
+      <c r="D171" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" t="s">
+        <v>526</v>
+      </c>
+      <c r="D172" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D173" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>352</v>
+      </c>
+      <c r="C174" t="s">
+        <v>528</v>
+      </c>
+      <c r="D174" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" t="s">
+        <v>529</v>
+      </c>
+      <c r="D175" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" t="s">
+        <v>530</v>
+      </c>
+      <c r="D176" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="C177" t="s">
+        <v>531</v>
+      </c>
+      <c r="D177" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
